--- a/va_facility_data_2025-02-20/Oconomowoc VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oconomowoc%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oconomowoc VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oconomowoc%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="Rae684351b58f47c6b1f37e3f42c20486"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R99e36c41bd9c431b83121113249e1338"/>
+    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R1cf20b85f70b46aa8a3edb74a9a64c19"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R64a738a2ab5c473a820b5149798252bd"/>
   </x:sheets>
 </x:workbook>
 </file>
